--- a/arrow-yard-signs.xlsx
+++ b/arrow-yard-signs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103D777-D26C-400A-9D8C-FA60B1BB67CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39171D9F-410B-4855-B3C5-9C08B5ACD92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{73FA6DD7-803D-4A82-8245-0E751524E951}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{73FA6DD7-803D-4A82-8245-0E751524E951}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4560" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="14">
   <si>
     <t>Sign Only</t>
   </si>
@@ -78,6 +77,9 @@
   </si>
   <si>
     <t>Grommet on each corner</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -429,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED4654-2AE8-4842-84A0-90A06B4824D9}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,9 +448,10 @@
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +482,18 @@
       <c r="J1">
         <v>23.14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1" t="str">
+        <f>_xlfn.CONCAT(G1,K1,L1,K1,L1,K1,J1)</f>
+        <v>1,0,0,23.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -511,8 +524,18 @@
       <c r="J2">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M57" si="0">_xlfn.CONCAT(G2,K2,L2,K2,L2,K2,J2)</f>
+        <v>2,0,0,36.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -543,8 +566,18 @@
       <c r="J3">
         <v>47.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>3,0,0,47.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -575,8 +608,18 @@
       <c r="J4">
         <v>59.11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>4,0,0,59.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -607,8 +650,18 @@
       <c r="J5">
         <v>66.73</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>5,0,0,66.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -639,8 +692,18 @@
       <c r="J6">
         <v>73.63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>6,0,0,73.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -671,8 +734,18 @@
       <c r="J7">
         <v>83.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>7,0,0,83.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -703,8 +776,18 @@
       <c r="J8">
         <v>91.97</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>8,0,0,91.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -735,8 +818,18 @@
       <c r="J9">
         <v>97.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>9,0,0,97.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -767,8 +860,18 @@
       <c r="J10">
         <v>104.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>10,0,0,104.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -799,8 +902,18 @@
       <c r="J11">
         <v>109.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>11,0,0,109.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -831,8 +944,18 @@
       <c r="J12">
         <v>114.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>12,0,0,114.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -863,8 +986,18 @@
       <c r="J13">
         <v>119.74</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>13,0,0,119.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -895,8 +1028,18 @@
       <c r="J14">
         <v>124.96</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>14,0,0,124.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -927,8 +1070,18 @@
       <c r="J15">
         <v>130.18</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>15,0,0,130.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -959,8 +1112,18 @@
       <c r="J16">
         <v>135.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>16,0,0,135.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -991,8 +1154,18 @@
       <c r="J17">
         <v>140.62</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>17,0,0,140.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1023,8 +1196,18 @@
       <c r="J18">
         <v>145.84</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>18,0,0,145.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1055,8 +1238,18 @@
       <c r="J19">
         <v>151.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>19,0,0,151.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1087,8 +1280,18 @@
       <c r="J20">
         <v>156.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>20,0,0,156.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1119,8 +1322,18 @@
       <c r="J21">
         <v>161.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>21,0,0,161.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1364,18 @@
       <c r="J22">
         <v>166.72</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>22,0,0,166.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1183,8 +1406,18 @@
       <c r="J23">
         <v>171.94</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>23,0,0,171.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1215,8 +1448,18 @@
       <c r="J24">
         <v>177.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>24,0,0,177.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1247,8 +1490,18 @@
       <c r="J25">
         <v>182.38</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>25,0,0,182.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1279,8 +1532,18 @@
       <c r="J26">
         <v>184.84</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>26,0,0,184.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1574,18 @@
       <c r="J27">
         <v>187.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>27,0,0,187.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1343,8 +1616,18 @@
       <c r="J28">
         <v>189.76</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>28,0,0,189.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1375,8 +1658,18 @@
       <c r="J29">
         <v>192.23</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="0"/>
+        <v>29,0,0,192.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1407,8 +1700,18 @@
       <c r="J30">
         <v>194.69</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="0"/>
+        <v>30,0,0,194.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1439,8 +1742,18 @@
       <c r="J31">
         <v>197.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="0"/>
+        <v>31,0,0,197.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1784,18 @@
       <c r="J32">
         <v>199.61</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="0"/>
+        <v>32,0,0,199.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1503,8 +1826,18 @@
       <c r="J33">
         <v>202.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="0"/>
+        <v>33,0,0,202.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1535,8 +1868,18 @@
       <c r="J34">
         <v>204.54</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="0"/>
+        <v>34,0,0,204.54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1567,8 +1910,18 @@
       <c r="J35">
         <v>207</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="0"/>
+        <v>35,0,0,207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1599,8 +1952,18 @@
       <c r="J36">
         <v>209.46</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="0"/>
+        <v>36,0,0,209.46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1631,8 +1994,18 @@
       <c r="J37">
         <v>211.93</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="0"/>
+        <v>37,0,0,211.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1663,8 +2036,18 @@
       <c r="J38">
         <v>214.39</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="0"/>
+        <v>38,0,0,214.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1695,8 +2078,18 @@
       <c r="J39">
         <v>216.85</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="0"/>
+        <v>39,0,0,216.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1727,8 +2120,18 @@
       <c r="J40">
         <v>219.31</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="0"/>
+        <v>40,0,0,219.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1759,8 +2162,18 @@
       <c r="J41">
         <v>221.78</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="0"/>
+        <v>41,0,0,221.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1791,8 +2204,18 @@
       <c r="J42">
         <v>224.24</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="0"/>
+        <v>42,0,0,224.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1823,8 +2246,18 @@
       <c r="J43">
         <v>226.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="0"/>
+        <v>43,0,0,226.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1855,8 +2288,18 @@
       <c r="J44">
         <v>229.16</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="0"/>
+        <v>44,0,0,229.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1887,8 +2330,18 @@
       <c r="J45">
         <v>231.63</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="0"/>
+        <v>45,0,0,231.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1919,8 +2372,18 @@
       <c r="J46">
         <v>234.09</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="0"/>
+        <v>46,0,0,234.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1951,8 +2414,18 @@
       <c r="J47">
         <v>236.55</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="0"/>
+        <v>47,0,0,236.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1983,8 +2456,18 @@
       <c r="J48">
         <v>239.01</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="0"/>
+        <v>48,0,0,239.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2015,8 +2498,18 @@
       <c r="J49">
         <v>241.48</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="0"/>
+        <v>49,0,0,241.48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2047,8 +2540,18 @@
       <c r="J50">
         <v>243.94</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="0"/>
+        <v>50,0,0,243.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2079,8 +2582,18 @@
       <c r="J51">
         <v>283.81</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="0"/>
+        <v>60,0,0,283.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2111,8 +2624,18 @@
       <c r="J52">
         <v>323.68</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v>70,0,0,323.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -2143,8 +2666,18 @@
       <c r="J53">
         <v>363.55</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="0"/>
+        <v>80,0,0,363.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2175,8 +2708,18 @@
       <c r="J54">
         <v>403.42</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="0"/>
+        <v>90,0,0,403.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2207,8 +2750,18 @@
       <c r="J55">
         <v>443.28</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="0"/>
+        <v>100,0,0,443.28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2239,8 +2792,18 @@
       <c r="J56">
         <v>1090.52</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="0"/>
+        <v>250,0,0,1090.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -2271,8 +2834,18 @@
       <c r="J57">
         <v>2081.91</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="0"/>
+        <v>500,0,0,2081.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2303,8 +2876,18 @@
       <c r="J60">
         <v>23.57</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="str">
+        <f>_xlfn.CONCAT(G60,K60,L60,K60,L60,K60,J60)</f>
+        <v>1,0,0,23.57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2335,8 +2918,18 @@
       <c r="J61">
         <v>41.41</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" ref="M61:M116" si="1">_xlfn.CONCAT(G61,K61,L61,K61,L61,K61,J61)</f>
+        <v>2,0,0,41.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2367,8 +2960,18 @@
       <c r="J62">
         <v>58.14</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>3,0,0,58.14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2399,8 +3002,18 @@
       <c r="J63">
         <v>74.86</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v>4,0,0,74.86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2431,8 +3044,18 @@
       <c r="J64">
         <v>82.84</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>5,0,0,82.84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2463,8 +3086,18 @@
       <c r="J65">
         <v>89.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v>6,0,0,89.21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2495,8 +3128,18 @@
       <c r="J66">
         <v>102.99</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v>7,0,0,102.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2527,8 +3170,18 @@
       <c r="J67">
         <v>112.16</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>13</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="1"/>
+        <v>8,0,0,112.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2559,8 +3212,18 @@
       <c r="J68">
         <v>115.98</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>13</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="1"/>
+        <v>9,0,0,115.98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2591,8 +3254,18 @@
       <c r="J69">
         <v>121.08</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="1"/>
+        <v>10,0,0,121.08</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2623,8 +3296,18 @@
       <c r="J70">
         <v>128.30000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="1"/>
+        <v>11,0,0,128.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2655,8 +3338,18 @@
       <c r="J71">
         <v>135.52000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>13</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="1"/>
+        <v>12,0,0,135.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2687,8 +3380,18 @@
       <c r="J72">
         <v>142.75</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="1"/>
+        <v>13,0,0,142.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2719,8 +3422,18 @@
       <c r="J73">
         <v>149.97</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="1"/>
+        <v>14,0,0,149.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2751,8 +3464,18 @@
       <c r="J74">
         <v>157.19</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="1"/>
+        <v>15,0,0,157.19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2783,8 +3506,18 @@
       <c r="J75">
         <v>164.42</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="1"/>
+        <v>16,0,0,164.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2815,8 +3548,18 @@
       <c r="J76">
         <v>171.64</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="1"/>
+        <v>17,0,0,171.64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2847,8 +3590,18 @@
       <c r="J77">
         <v>178.86</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>13</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="1"/>
+        <v>18,0,0,178.86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -2879,8 +3632,18 @@
       <c r="J78">
         <v>186.09</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>13</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="1"/>
+        <v>19,0,0,186.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2911,8 +3674,18 @@
       <c r="J79">
         <v>193.31</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="1"/>
+        <v>20,0,0,193.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2943,8 +3716,18 @@
       <c r="J80">
         <v>200.53</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="1"/>
+        <v>21,0,0,200.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2975,8 +3758,18 @@
       <c r="J81">
         <v>207.75</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="1"/>
+        <v>22,0,0,207.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3007,8 +3800,18 @@
       <c r="J82">
         <v>214.98</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="1"/>
+        <v>23,0,0,214.98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3039,8 +3842,18 @@
       <c r="J83">
         <v>222.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>13</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="1"/>
+        <v>24,0,0,222.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3071,8 +3884,18 @@
       <c r="J84">
         <v>229.42</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>13</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="1"/>
+        <v>25,0,0,229.42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3103,8 +3926,18 @@
       <c r="J85">
         <v>230.44</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="1"/>
+        <v>26,0,0,230.44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3135,8 +3968,18 @@
       <c r="J86">
         <v>231.46</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="1"/>
+        <v>27,0,0,231.46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3167,8 +4010,18 @@
       <c r="J87">
         <v>232.48</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>13</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="1"/>
+        <v>28,0,0,232.48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3199,8 +4052,18 @@
       <c r="J88">
         <v>233.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>13</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="1"/>
+        <v>29,0,0,233.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3231,8 +4094,18 @@
       <c r="J89">
         <v>234.52</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="1"/>
+        <v>30,0,0,234.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3263,8 +4136,18 @@
       <c r="J90">
         <v>235.54</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>13</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="1"/>
+        <v>31,0,0,235.54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3295,8 +4178,18 @@
       <c r="J91">
         <v>236.56</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>13</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="1"/>
+        <v>32,0,0,236.56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -3327,8 +4220,18 @@
       <c r="J92">
         <v>237.58</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="1"/>
+        <v>33,0,0,237.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -3359,8 +4262,18 @@
       <c r="J93">
         <v>238.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>13</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="1"/>
+        <v>34,0,0,238.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -3391,8 +4304,18 @@
       <c r="J94">
         <v>239.62</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="1"/>
+        <v>35,0,0,239.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -3423,8 +4346,18 @@
       <c r="J95">
         <v>240.64</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="1"/>
+        <v>36,0,0,240.64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -3455,8 +4388,18 @@
       <c r="J96">
         <v>241.66</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="1"/>
+        <v>37,0,0,241.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3487,8 +4430,18 @@
       <c r="J97">
         <v>242.68</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="1"/>
+        <v>38,0,0,242.68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -3519,8 +4472,18 @@
       <c r="J98">
         <v>243.7</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="1"/>
+        <v>39,0,0,243.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3551,8 +4514,18 @@
       <c r="J99">
         <v>244.72</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="1"/>
+        <v>40,0,0,244.72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3583,8 +4556,18 @@
       <c r="J100">
         <v>245.74</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="1"/>
+        <v>41,0,0,245.74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -3615,8 +4598,18 @@
       <c r="J101">
         <v>246.76</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="1"/>
+        <v>42,0,0,246.76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -3647,8 +4640,18 @@
       <c r="J102">
         <v>247.78</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="1"/>
+        <v>43,0,0,247.78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -3679,8 +4682,18 @@
       <c r="J103">
         <v>248.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="1"/>
+        <v>44,0,0,248.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -3711,8 +4724,18 @@
       <c r="J104">
         <v>249.82</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="1"/>
+        <v>45,0,0,249.82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -3743,8 +4766,18 @@
       <c r="J105">
         <v>250.84</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="1"/>
+        <v>46,0,0,250.84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -3775,8 +4808,18 @@
       <c r="J106">
         <v>251.86</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="1"/>
+        <v>47,0,0,251.86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -3807,8 +4850,18 @@
       <c r="J107">
         <v>252.88</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="1"/>
+        <v>48,0,0,252.88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -3839,8 +4892,18 @@
       <c r="J108">
         <v>253.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>13</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="1"/>
+        <v>49,0,0,253.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3871,8 +4934,18 @@
       <c r="J109">
         <v>254.92</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="1"/>
+        <v>50,0,0,254.92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -3903,8 +4976,18 @@
       <c r="J110">
         <v>298.26</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="1"/>
+        <v>60,0,0,298.26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -3935,8 +5018,18 @@
       <c r="J111">
         <v>341.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="1"/>
+        <v>70,0,0,341.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -3967,8 +5060,18 @@
       <c r="J112">
         <v>384.94</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="1"/>
+        <v>80,0,0,384.94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -3999,8 +5102,18 @@
       <c r="J113">
         <v>428.28</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="1"/>
+        <v>90,0,0,428.28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4031,8 +5144,18 @@
       <c r="J114">
         <v>471.62</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" t="s">
+        <v>13</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="1"/>
+        <v>100,0,0,471.62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4063,8 +5186,18 @@
       <c r="J115">
         <v>1179.04</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="1"/>
+        <v>250,0,0,1179.04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4094,6 +5227,16 @@
       </c>
       <c r="J116">
         <v>2294.35</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="1"/>
+        <v>500,0,0,2294.35</v>
       </c>
     </row>
   </sheetData>
@@ -4103,10 +5246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBAE41D-EDF0-4FA8-9894-1451ED33BD20}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61:L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,7 +5265,7 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -4153,8 +5296,15 @@
       <c r="J1">
         <v>26.09</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>23.14</v>
+      </c>
+      <c r="L1">
+        <f>J1-K1</f>
+        <v>2.9499999999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4185,8 +5335,15 @@
       <c r="J2">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>36.1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L57" si="0">J2-K2</f>
+        <v>5.8999999999999986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4217,8 +5374,15 @@
       <c r="J3">
         <v>56.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>47.61</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>8.8400000000000034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4249,8 +5413,15 @@
       <c r="J4">
         <v>70.900000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>59.11</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>11.790000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4281,8 +5452,15 @@
       <c r="J5">
         <v>81.47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>66.73</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>14.739999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4313,8 +5491,15 @@
       <c r="J6">
         <v>91.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>73.63</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>17.689999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4345,8 +5530,15 @@
       <c r="J7">
         <v>104.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>83.83</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>20.629999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4377,8 +5569,15 @@
       <c r="J8">
         <v>115.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>91.97</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4409,8 +5608,15 @@
       <c r="J9">
         <v>124.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>97.75</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>26.519999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4441,8 +5647,15 @@
       <c r="J10">
         <v>133.56</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>104.08</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>29.480000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4473,8 +5686,15 @@
       <c r="J11">
         <v>141.72999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>109.3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>32.429999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4505,8 +5725,15 @@
       <c r="J12">
         <v>149.88999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>114.52</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>35.36999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4537,8 +5764,15 @@
       <c r="J13">
         <v>158.06</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>119.74</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>38.320000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -4569,8 +5803,15 @@
       <c r="J14">
         <v>166.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>124.96</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>41.269999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4601,8 +5842,15 @@
       <c r="J15">
         <v>174.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>130.18</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>44.20999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -4633,8 +5881,15 @@
       <c r="J16">
         <v>182.56</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>135.4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>47.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -4665,8 +5920,15 @@
       <c r="J17">
         <v>190.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>140.62</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>50.109999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -4697,8 +5959,15 @@
       <c r="J18">
         <v>198.89</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>145.84</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>53.049999999999983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -4729,8 +5998,15 @@
       <c r="J19">
         <v>207.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>151.06</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -4761,8 +6037,15 @@
       <c r="J20">
         <v>215.23</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>156.28</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>58.949999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -4793,8 +6076,15 @@
       <c r="J21">
         <v>223.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>161.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>61.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -4825,8 +6115,15 @@
       <c r="J22">
         <v>231.56</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>166.72</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4857,8 +6154,15 @@
       <c r="J23">
         <v>239.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>171.94</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>67.789999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -4889,8 +6193,15 @@
       <c r="J24">
         <v>247.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>177.16</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>70.740000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -4921,8 +6232,15 @@
       <c r="J25">
         <v>256.06</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>182.38</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>73.680000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4953,8 +6271,15 @@
       <c r="J26">
         <v>261.47000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>184.84</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>76.630000000000024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4985,8 +6310,15 @@
       <c r="J27">
         <v>266.88</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>187.3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>79.579999999999984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5017,8 +6349,15 @@
       <c r="J28">
         <v>272.29000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>189.76</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>82.53000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -5049,8 +6388,15 @@
       <c r="J29">
         <v>277.70999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>192.23</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>85.47999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -5081,8 +6427,15 @@
       <c r="J30">
         <v>283.11</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>194.69</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>88.420000000000016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -5113,8 +6466,15 @@
       <c r="J31">
         <v>288.52999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>197.15</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>91.379999999999967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -5145,8 +6505,15 @@
       <c r="J32">
         <v>293.93</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>199.61</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>94.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -5177,8 +6544,15 @@
       <c r="J33">
         <v>299.33999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>202.08</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>97.259999999999962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -5209,8 +6583,15 @@
       <c r="J34">
         <v>304.76</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>204.54</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -5241,8 +6622,15 @@
       <c r="J35">
         <v>310.17</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>207</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>103.17000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -5273,8 +6661,15 @@
       <c r="J36">
         <v>315.58</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>209.46</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>106.11999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -5305,8 +6700,15 @@
       <c r="J37">
         <v>320.99</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>211.93</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>109.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -5337,8 +6739,15 @@
       <c r="J38">
         <v>326.39999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>214.39</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>112.00999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -5369,8 +6778,15 @@
       <c r="J39">
         <v>331.81</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>216.85</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>114.96000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -5401,8 +6817,15 @@
       <c r="J40">
         <v>337.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>219.31</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>117.91000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -5433,8 +6856,15 @@
       <c r="J41">
         <v>342.63</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>221.78</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>120.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -5465,8 +6895,15 @@
       <c r="J42">
         <v>348.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>224.24</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>123.80000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -5497,8 +6934,15 @@
       <c r="J43">
         <v>353.45</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>226.7</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>126.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -5529,8 +6973,15 @@
       <c r="J44">
         <v>358.86</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>229.16</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>129.70000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -5561,8 +7012,15 @@
       <c r="J45">
         <v>364.27</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>231.63</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>132.63999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -5593,8 +7051,15 @@
       <c r="J46">
         <v>369.68</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>234.09</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>135.59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -5625,8 +7090,15 @@
       <c r="J47">
         <v>375.09</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>236.55</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>138.53999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -5657,8 +7129,15 @@
       <c r="J48">
         <v>380.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>239.01</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>141.49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -5689,8 +7168,15 @@
       <c r="J49">
         <v>385.91</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>241.48</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>144.43000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -5721,8 +7207,15 @@
       <c r="J50">
         <v>391.32</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>243.94</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>147.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -5753,8 +7246,15 @@
       <c r="J51">
         <v>460.66</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>283.81</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>176.85000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -5785,8 +7285,15 @@
       <c r="J52">
         <v>530.01</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>323.68</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>206.32999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -5817,8 +7324,15 @@
       <c r="J53">
         <v>599.35</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>363.55</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>235.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5849,8 +7363,15 @@
       <c r="J54">
         <v>668.69</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>403.42</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>265.27000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -5881,8 +7402,15 @@
       <c r="J55">
         <v>738.04</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>443.28</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>294.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -5913,8 +7441,15 @@
       <c r="J56">
         <v>1827.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1090.52</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>736.88000000000011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5945,8 +7480,15 @@
       <c r="J57">
         <v>3555.67</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>2081.91</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>1473.7600000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -5977,8 +7519,15 @@
       <c r="J61">
         <v>26.52</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>23.57</v>
+      </c>
+      <c r="L61">
+        <f>J61-K61</f>
+        <v>2.9499999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -6009,8 +7558,15 @@
       <c r="J62">
         <v>47.31</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>41.41</v>
+      </c>
+      <c r="L62">
+        <f t="shared" ref="L62:L117" si="1">J62-K62</f>
+        <v>5.9000000000000057</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -6041,8 +7597,15 @@
       <c r="J63">
         <v>66.98</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>58.14</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>8.8400000000000034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -6073,8 +7636,15 @@
       <c r="J64">
         <v>86.65</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>74.86</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>11.790000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -6105,8 +7675,15 @@
       <c r="J65">
         <v>97.58</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>82.84</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>14.739999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -6137,8 +7714,15 @@
       <c r="J66">
         <v>106.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>89.21</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>17.690000000000012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -6169,8 +7753,15 @@
       <c r="J67">
         <v>123.62</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>102.99</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>20.63000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -6201,8 +7792,15 @@
       <c r="J68">
         <v>135.74</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>112.16</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>23.580000000000013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -6233,8 +7831,15 @@
       <c r="J69">
         <v>142.51</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>115.98</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>26.529999999999987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -6265,8 +7870,15 @@
       <c r="J70">
         <v>150.55000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>121.08</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>29.470000000000013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -6297,8 +7909,15 @@
       <c r="J71">
         <v>160.72</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>32.419999999999987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -6329,8 +7948,15 @@
       <c r="J72">
         <v>170.89</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>35.369999999999976</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -6361,8 +7987,15 @@
       <c r="J73">
         <v>181.07</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>142.75</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>38.319999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -6393,8 +8026,15 @@
       <c r="J74">
         <v>191.24</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>149.97</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>41.27000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -6425,8 +8065,15 @@
       <c r="J75">
         <v>201.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>157.19</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>44.210000000000008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -6457,8 +8104,15 @@
       <c r="J76">
         <v>211.58</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>164.42</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>47.160000000000025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -6489,8 +8143,15 @@
       <c r="J77">
         <v>221.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>171.64</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>50.110000000000014</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -6521,8 +8182,15 @@
       <c r="J78">
         <v>231.92</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>178.86</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>53.059999999999974</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -6553,8 +8221,15 @@
       <c r="J79">
         <v>242.09</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>186.09</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -6585,8 +8260,15 @@
       <c r="J80">
         <v>252.26</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>193.31</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>58.949999999999989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -6617,8 +8299,15 @@
       <c r="J81">
         <v>262.43</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>200.53</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>61.900000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -6649,8 +8338,15 @@
       <c r="J82">
         <v>272.60000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>207.75</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>64.850000000000023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -6681,8 +8377,15 @@
       <c r="J83">
         <v>282.77</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>214.98</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>67.789999999999992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -6713,8 +8416,15 @@
       <c r="J84">
         <v>292.94</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>222.2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>70.740000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -6745,8 +8455,15 @@
       <c r="J85">
         <v>303.11</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>229.42</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>73.690000000000026</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -6777,8 +8494,15 @@
       <c r="J86">
         <v>307.08</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>230.44</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>76.639999999999986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -6809,8 +8533,15 @@
       <c r="J87">
         <v>311.05</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>231.46</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>79.59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -6841,8 +8572,15 @@
       <c r="J88">
         <v>315.01</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>232.48</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>82.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -6873,8 +8611,15 @@
       <c r="J89">
         <v>318.98</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>233.5</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>85.480000000000018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -6905,8 +8650,15 @@
       <c r="J90">
         <v>322.95</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>234.52</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>88.429999999999978</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -6937,8 +8689,15 @@
       <c r="J91">
         <v>326.91000000000003</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>235.54</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>91.370000000000033</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -6969,8 +8728,15 @@
       <c r="J92">
         <v>330.88</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>236.56</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>94.32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -7001,8 +8767,15 @@
       <c r="J93">
         <v>334.85</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>237.58</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>97.27000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -7033,8 +8806,15 @@
       <c r="J94">
         <v>338.82</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>238.6</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -7065,8 +8845,15 @@
       <c r="J95">
         <v>342.78</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>239.62</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>103.15999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -7097,8 +8884,15 @@
       <c r="J96">
         <v>346.75</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>240.64</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>106.11000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -7129,8 +8923,15 @@
       <c r="J97">
         <v>350.72</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>241.66</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>109.06000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -7161,8 +8962,15 @@
       <c r="J98">
         <v>354.69</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>242.68</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>112.00999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -7193,8 +9001,15 @@
       <c r="J99">
         <v>358.65</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>243.7</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>114.94999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -7225,8 +9040,15 @@
       <c r="J100">
         <v>362.62</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>244.72</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -7257,8 +9079,15 @@
       <c r="J101">
         <v>366.59</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>245.74</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>120.84999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -7289,8 +9118,15 @@
       <c r="J102">
         <v>370.55</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>246.76</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>123.79000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -7321,8 +9157,15 @@
       <c r="J103">
         <v>374.52</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>247.78</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>126.73999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -7353,8 +9196,15 @@
       <c r="J104">
         <v>378.49</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>248.8</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>129.69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -7385,8 +9235,15 @@
       <c r="J105">
         <v>382.46</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>249.82</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>132.63999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -7417,8 +9274,15 @@
       <c r="J106">
         <v>386.42</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>250.84</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>135.58000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -7449,8 +9313,15 @@
       <c r="J107">
         <v>390.39</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>251.86</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>138.52999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -7481,8 +9352,15 @@
       <c r="J108">
         <v>394.36</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>252.88</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>141.48000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -7513,8 +9391,15 @@
       <c r="J109">
         <v>398.33</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>253.9</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>144.42999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -7545,8 +9430,15 @@
       <c r="J110">
         <v>402.29</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>254.92</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>147.37000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -7577,8 +9469,15 @@
       <c r="J111">
         <v>475.11</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>298.26</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>176.85000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -7609,8 +9508,15 @@
       <c r="J112">
         <v>547.91999999999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>341.6</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>206.31999999999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -7641,8 +9547,15 @@
       <c r="J113">
         <v>620.74</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>384.94</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>235.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -7673,8 +9586,15 @@
       <c r="J114">
         <v>693.56</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>428.28</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>265.27999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -7705,8 +9625,15 @@
       <c r="J115">
         <v>766.37</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>471.62</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>294.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -7737,8 +9664,15 @@
       <c r="J116">
         <v>1915.93</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>1179.04</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>736.8900000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -7769,18 +9703,26 @@
       <c r="J117">
         <v>3768.12</v>
       </c>
+      <c r="K117">
+        <v>2294.35</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>1473.77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ECBB48-A4EE-43F1-A849-5EA5FE07F208}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7796,7 +9738,7 @@
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7827,8 +9769,15 @@
       <c r="J1">
         <v>33.590000000000003</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1">
+        <v>23.14</v>
+      </c>
+      <c r="L1">
+        <f>J1-K1</f>
+        <v>10.450000000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7859,8 +9808,15 @@
       <c r="J2">
         <v>50.26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>36.1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L57" si="0">J2-K2</f>
+        <v>14.159999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -7891,8 +9847,15 @@
       <c r="J3">
         <v>66.260000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>47.61</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>18.650000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7923,8 +9886,15 @@
       <c r="J4">
         <v>82.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>59.11</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -7955,8 +9925,15 @@
       <c r="J5">
         <v>98.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>66.73</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>31.519999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -7987,8 +9964,15 @@
       <c r="J6">
         <v>99.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>73.63</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>26.060000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -8019,8 +10003,15 @@
       <c r="J7">
         <v>113.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>83.83</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -8051,8 +10042,15 @@
       <c r="J8">
         <v>127.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>91.97</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>35.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -8083,8 +10081,15 @@
       <c r="J9">
         <v>140.93</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>97.75</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>43.180000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8115,8 +10120,15 @@
       <c r="J10">
         <v>151.66999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>104.08</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>47.589999999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8147,8 +10159,15 @@
       <c r="J11">
         <v>158.59</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>109.3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>49.290000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -8179,8 +10198,15 @@
       <c r="J12">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>114.52</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>50.980000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -8211,8 +10237,15 @@
       <c r="J13">
         <v>172.41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>119.74</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -8243,8 +10276,15 @@
       <c r="J14">
         <v>179.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>124.96</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>54.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -8275,8 +10315,15 @@
       <c r="J15">
         <v>186.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>130.18</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>56.049999999999983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8307,8 +10354,15 @@
       <c r="J16">
         <v>193.14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>135.4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>57.739999999999981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8339,8 +10393,15 @@
       <c r="J17">
         <v>200.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>140.62</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>59.430000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -8371,8 +10432,15 @@
       <c r="J18">
         <v>206.96</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>145.84</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>61.120000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -8403,8 +10471,15 @@
       <c r="J19">
         <v>213.87</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>151.06</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -8435,8 +10510,15 @@
       <c r="J20">
         <v>220.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>156.28</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -8467,8 +10549,15 @@
       <c r="J21">
         <v>227.69</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>161.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>66.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -8499,8 +10588,15 @@
       <c r="J22">
         <v>234.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>166.72</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>67.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -8531,8 +10627,15 @@
       <c r="J23">
         <v>241.51</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>171.94</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -8563,8 +10666,15 @@
       <c r="J24">
         <v>248.42</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>177.16</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>71.259999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -8595,8 +10705,15 @@
       <c r="J25">
         <v>255.33</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>182.38</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>72.950000000000017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -8627,8 +10744,15 @@
       <c r="J26">
         <v>258.77999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>184.84</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>73.939999999999969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -8659,8 +10783,15 @@
       <c r="J27">
         <v>262.23</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>187.3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>74.930000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -8691,8 +10822,15 @@
       <c r="J28">
         <v>265.67</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>189.76</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>75.910000000000025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -8723,8 +10861,15 @@
       <c r="J29">
         <v>269.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>192.23</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>76.890000000000015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -8755,8 +10900,15 @@
       <c r="J30">
         <v>272.57</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>194.69</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>77.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -8787,8 +10939,15 @@
       <c r="J31">
         <v>276.02</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>197.15</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>78.869999999999976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -8819,8 +10978,15 @@
       <c r="J32">
         <v>279.45999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>199.61</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>79.849999999999966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -8851,8 +11017,15 @@
       <c r="J33">
         <v>282.91000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>202.08</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>80.830000000000013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -8883,8 +11056,15 @@
       <c r="J34">
         <v>286.36</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>204.54</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>81.820000000000022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -8915,8 +11095,15 @@
       <c r="J35">
         <v>289.81</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>207</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>82.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -8947,8 +11134,15 @@
       <c r="J36">
         <v>293.25</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>209.46</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>83.789999999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -8979,8 +11173,15 @@
       <c r="J37">
         <v>296.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>211.93</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>84.769999999999982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -9011,8 +11212,15 @@
       <c r="J38">
         <v>300.14999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>214.39</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>85.759999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -9043,8 +11251,15 @@
       <c r="J39">
         <v>303.60000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>216.85</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>86.750000000000028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -9075,8 +11290,15 @@
       <c r="J40">
         <v>307.04000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>219.31</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>87.730000000000018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -9107,8 +11329,15 @@
       <c r="J41">
         <v>310.49</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>221.78</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>88.710000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -9139,8 +11368,15 @@
       <c r="J42">
         <v>313.94</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>224.24</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>89.699999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -9171,8 +11407,15 @@
       <c r="J43">
         <v>317.39</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>226.7</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>90.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -9203,8 +11446,15 @@
       <c r="J44">
         <v>320.83</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>229.16</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>91.669999999999987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -9235,8 +11485,15 @@
       <c r="J45">
         <v>324.27999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>231.63</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>92.649999999999977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -9267,8 +11524,15 @@
       <c r="J46">
         <v>327.73</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>234.09</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>93.640000000000015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -9299,8 +11563,15 @@
       <c r="J47">
         <v>331.18</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>236.55</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>94.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -9331,8 +11602,15 @@
       <c r="J48">
         <v>334.63</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>239.01</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>95.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -9363,8 +11641,15 @@
       <c r="J49">
         <v>338.07</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>241.48</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>96.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -9395,8 +11680,15 @@
       <c r="J50">
         <v>341.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>243.94</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>97.579999999999984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -9427,8 +11719,15 @@
       <c r="J51">
         <v>397.34</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>283.81</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>113.52999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -9459,8 +11758,15 @@
       <c r="J52">
         <v>453.15</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>323.68</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>129.46999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -9491,8 +11797,15 @@
       <c r="J53">
         <v>508.97</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>363.55</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>145.42000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -9523,8 +11836,15 @@
       <c r="J54">
         <v>564.78</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>403.42</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>161.35999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -9555,8 +11875,15 @@
       <c r="J55">
         <v>620.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>443.28</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>177.32000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -9587,8 +11914,15 @@
       <c r="J56">
         <v>1317.12</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1090.52</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>226.59999999999991</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -9619,8 +11953,15 @@
       <c r="J57">
         <v>2506.79</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>2081.91</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>424.88000000000011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -9651,8 +11992,15 @@
       <c r="J62">
         <v>35.68</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>23.57</v>
+      </c>
+      <c r="L62">
+        <f>J62-K62</f>
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -9683,8 +12031,15 @@
       <c r="J63">
         <v>57.35</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>41.41</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ref="L63:L118" si="1">J63-K63</f>
+        <v>15.940000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -9715,8 +12070,15 @@
       <c r="J64">
         <v>80.510000000000005</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>58.14</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>22.370000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -9747,8 +12109,15 @@
       <c r="J65">
         <v>103.67</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>74.86</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>28.810000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -9779,8 +12148,15 @@
       <c r="J66">
         <v>126.83</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>82.84</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>43.989999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -9811,8 +12187,15 @@
       <c r="J67">
         <v>117.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>89.21</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>28.040000000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -9843,8 +12226,15 @@
       <c r="J68">
         <v>135.35</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>102.99</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>32.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -9875,8 +12265,15 @@
       <c r="J69">
         <v>153.47</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>112.16</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>41.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -9907,8 +12304,15 @@
       <c r="J70">
         <v>171.57</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>115.98</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>55.589999999999989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -9939,8 +12343,15 @@
       <c r="J71">
         <v>182.91</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>121.08</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>61.83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -9971,8 +12382,15 @@
       <c r="J72">
         <v>192.13</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>63.829999999999984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -10003,8 +12421,15 @@
       <c r="J73">
         <v>201.35</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>65.829999999999984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -10035,8 +12460,15 @@
       <c r="J74">
         <v>210.57</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>142.75</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>67.819999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -10067,8 +12499,15 @@
       <c r="J75">
         <v>219.79</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>149.97</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>69.819999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -10099,8 +12538,15 @@
       <c r="J76">
         <v>229.01</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>157.19</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>71.819999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -10131,8 +12577,15 @@
       <c r="J77">
         <v>238.23</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>164.42</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>73.81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -10163,8 +12616,15 @@
       <c r="J78">
         <v>247.45</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>171.64</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>75.81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -10195,8 +12655,15 @@
       <c r="J79">
         <v>256.66000000000003</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>178.86</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>77.800000000000011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -10227,8 +12694,15 @@
       <c r="J80">
         <v>265.88</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>186.09</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>79.789999999999992</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -10259,8 +12733,15 @@
       <c r="J81">
         <v>275.10000000000002</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>193.31</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>81.79000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -10291,8 +12772,15 @@
       <c r="J82">
         <v>284.32</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>200.53</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>83.789999999999992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -10323,8 +12811,15 @@
       <c r="J83">
         <v>293.54000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>207.75</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>85.79000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -10355,8 +12850,15 @@
       <c r="J84">
         <v>302.76</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>214.98</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -10387,8 +12889,15 @@
       <c r="J85">
         <v>311.98</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>222.2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>89.78000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -10419,8 +12928,15 @@
       <c r="J86">
         <v>321.19</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>229.42</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>91.77000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -10451,8 +12967,15 @@
       <c r="J87">
         <v>322.62</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>230.44</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>92.18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -10483,8 +13006,15 @@
       <c r="J88">
         <v>324.05</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>231.46</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>92.59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -10515,8 +13045,15 @@
       <c r="J89">
         <v>325.48</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>232.48</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>93.000000000000028</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -10547,8 +13084,15 @@
       <c r="J90">
         <v>326.91000000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>233.5</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>93.410000000000025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -10579,8 +13123,15 @@
       <c r="J91">
         <v>328.33</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>234.52</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>93.809999999999974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -10611,8 +13162,15 @@
       <c r="J92">
         <v>329.76</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>235.54</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>94.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -10643,8 +13201,15 @@
       <c r="J93">
         <v>331.19</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>236.56</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>94.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -10675,8 +13240,15 @@
       <c r="J94">
         <v>332.62</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>237.58</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>95.039999999999992</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -10707,8 +13279,15 @@
       <c r="J95">
         <v>334.04</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>238.6</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>95.440000000000026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -10739,8 +13318,15 @@
       <c r="J96">
         <v>335.47</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>239.62</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>95.850000000000023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -10771,8 +13357,15 @@
       <c r="J97">
         <v>336.9</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>240.64</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>96.259999999999991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -10803,8 +13396,15 @@
       <c r="J98">
         <v>338.33</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>241.66</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>96.669999999999987</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -10835,8 +13435,15 @@
       <c r="J99">
         <v>339.76</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>242.68</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>97.079999999999984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -10867,8 +13474,15 @@
       <c r="J100">
         <v>341.18</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>243.7</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>97.480000000000018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -10899,8 +13513,15 @@
       <c r="J101">
         <v>342.61</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>244.72</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>97.890000000000015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -10931,8 +13552,15 @@
       <c r="J102">
         <v>344.04</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>245.74</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>98.300000000000011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -10963,8 +13591,15 @@
       <c r="J103">
         <v>345.47</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>246.76</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>98.710000000000036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -10995,8 +13630,15 @@
       <c r="J104">
         <v>346.89</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>247.78</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>99.109999999999985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -11027,8 +13669,15 @@
       <c r="J105">
         <v>348.32</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>248.8</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>99.519999999999982</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -11059,8 +13708,15 @@
       <c r="J106">
         <v>349.75</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>249.82</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>99.93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -11091,8 +13747,15 @@
       <c r="J107">
         <v>351.18</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>250.84</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>100.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -11123,8 +13786,15 @@
       <c r="J108">
         <v>352.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>251.86</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>100.74000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -11155,8 +13825,15 @@
       <c r="J109">
         <v>354.03</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>252.88</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>101.14999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -11187,8 +13864,15 @@
       <c r="J110">
         <v>355.46</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>253.9</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>101.55999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -11219,8 +13903,15 @@
       <c r="J111">
         <v>356.88</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>254.92</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>101.96000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -11251,8 +13942,15 @@
       <c r="J112">
         <v>417.56</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>298.26</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>119.30000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -11283,8 +13981,15 @@
       <c r="J113">
         <v>478.24</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>341.6</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>136.63999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -11315,8 +14020,15 @@
       <c r="J114">
         <v>538.91</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>384.94</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>153.96999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -11347,8 +14059,15 @@
       <c r="J115">
         <v>599.59</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>428.28</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>171.31000000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -11379,8 +14098,15 @@
       <c r="J116">
         <v>660.26</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>471.62</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>188.64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -11411,8 +14137,15 @@
       <c r="J117">
         <v>1179.04</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>1179.04</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -11443,18 +14176,26 @@
       <c r="J118">
         <v>2294.35</v>
       </c>
+      <c r="K118">
+        <v>2294.35</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7C0E9F-36A6-4F5F-9357-3DFE7B8FD7B4}">
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63:L240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13007,7 +15748,7 @@
         <v>374.63</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -13039,7 +15780,7 @@
         <v>379.92</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -13071,7 +15812,7 @@
         <v>385.2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -13103,7 +15844,7 @@
         <v>453.33</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -13135,7 +15876,7 @@
         <v>521.45000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -13167,7 +15908,7 @@
         <v>589.57000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -13199,7 +15940,7 @@
         <v>657.69</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -13231,7 +15972,7 @@
         <v>725.81</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -13263,7 +16004,7 @@
         <v>1796.84</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -13295,7 +16036,7 @@
         <v>3494.55</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -13326,8 +16067,15 @@
       <c r="J63">
         <v>26.39</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>23.57</v>
+      </c>
+      <c r="L63">
+        <f>J63-K63</f>
+        <v>2.8200000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -13358,8 +16106,15 @@
       <c r="J64">
         <v>47.06</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>41.41</v>
+      </c>
+      <c r="L64">
+        <f t="shared" ref="L64:L119" si="0">J64-K64</f>
+        <v>5.6500000000000057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -13390,8 +16145,15 @@
       <c r="J65">
         <v>66.61</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>58.14</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>8.4699999999999989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -13422,8 +16184,15 @@
       <c r="J66">
         <v>86.16</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>74.86</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>11.299999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -13454,8 +16223,15 @@
       <c r="J67">
         <v>96.97</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>82.84</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="0"/>
+        <v>14.129999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -13486,8 +16262,15 @@
       <c r="J68">
         <v>106.16</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>89.21</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>16.950000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -13518,8 +16301,15 @@
       <c r="J69">
         <v>122.77</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>102.99</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -13550,8 +16340,15 @@
       <c r="J70">
         <v>134.76</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>112.16</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
+        <v>22.599999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -13582,8 +16379,15 @@
       <c r="J71">
         <v>141.41</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>115.98</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="0"/>
+        <v>25.429999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -13614,8 +16418,15 @@
       <c r="J72">
         <v>149.33000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>121.08</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="0"/>
+        <v>28.250000000000014</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -13646,8 +16457,15 @@
       <c r="J73">
         <v>159.38</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="0"/>
+        <v>31.079999999999984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -13678,8 +16496,15 @@
       <c r="J74">
         <v>169.43</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="0"/>
+        <v>33.909999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -13710,8 +16535,15 @@
       <c r="J75">
         <v>179.48</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>142.75</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="0"/>
+        <v>36.72999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -13742,8 +16574,15 @@
       <c r="J76">
         <v>189.52</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>149.97</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="0"/>
+        <v>39.550000000000011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -13774,8 +16613,15 @@
       <c r="J77">
         <v>199.57</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>157.19</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="0"/>
+        <v>42.379999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -13806,8 +16652,15 @@
       <c r="J78">
         <v>209.62</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>164.42</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="0"/>
+        <v>45.200000000000017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -13838,8 +16691,15 @@
       <c r="J79">
         <v>219.67</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>171.64</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="0"/>
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -13870,8 +16730,15 @@
       <c r="J80">
         <v>229.72</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>178.86</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>50.859999999999985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -13902,8 +16769,15 @@
       <c r="J81">
         <v>239.77</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>186.09</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="0"/>
+        <v>53.680000000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -13934,8 +16808,15 @@
       <c r="J82">
         <v>249.81</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>193.31</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -13966,8 +16847,15 @@
       <c r="J83">
         <v>259.86</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>200.53</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="0"/>
+        <v>59.330000000000013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -13998,8 +16886,15 @@
       <c r="J84">
         <v>269.91000000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>207.75</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="0"/>
+        <v>62.160000000000025</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -14030,8 +16925,15 @@
       <c r="J85">
         <v>279.95999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>214.98</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="0"/>
+        <v>64.97999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -14062,8 +16964,15 @@
       <c r="J86">
         <v>290.01</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>222.2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="0"/>
+        <v>67.81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -14094,8 +17003,15 @@
       <c r="J87">
         <v>300.06</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>229.42</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="0"/>
+        <v>70.640000000000015</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -14126,8 +17042,15 @@
       <c r="J88">
         <v>303.89999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>230.44</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="0"/>
+        <v>73.45999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -14158,8 +17081,15 @@
       <c r="J89">
         <v>307.75</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>231.46</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="0"/>
+        <v>76.289999999999992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -14190,8 +17120,15 @@
       <c r="J90">
         <v>311.58999999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>232.48</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="0"/>
+        <v>79.109999999999985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -14222,8 +17159,15 @@
       <c r="J91">
         <v>315.44</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>233.5</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="0"/>
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -14254,8 +17198,15 @@
       <c r="J92">
         <v>319.27999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>234.52</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="0"/>
+        <v>84.759999999999962</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -14286,8 +17237,15 @@
       <c r="J93">
         <v>323.13</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>235.54</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="0"/>
+        <v>87.59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -14318,8 +17276,15 @@
       <c r="J94">
         <v>326.97000000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>236.56</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="0"/>
+        <v>90.410000000000025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -14350,8 +17315,15 @@
       <c r="J95">
         <v>330.82</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>237.58</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="0"/>
+        <v>93.239999999999981</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -14382,8 +17354,15 @@
       <c r="J96">
         <v>334.66</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>238.6</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="0"/>
+        <v>96.060000000000031</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -14414,8 +17393,15 @@
       <c r="J97">
         <v>338.51</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>239.62</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="0"/>
+        <v>98.889999999999986</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -14446,8 +17432,15 @@
       <c r="J98">
         <v>342.35</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>240.64</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="0"/>
+        <v>101.71000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -14478,8 +17471,15 @@
       <c r="J99">
         <v>346.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>241.66</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="0"/>
+        <v>104.53999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -14510,8 +17510,15 @@
       <c r="J100">
         <v>350.04</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>242.68</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="0"/>
+        <v>107.36000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -14542,8 +17549,15 @@
       <c r="J101">
         <v>353.89</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>243.7</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="0"/>
+        <v>110.19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -14574,8 +17588,15 @@
       <c r="J102">
         <v>357.73</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>244.72</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="0"/>
+        <v>113.01000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -14606,8 +17627,15 @@
       <c r="J103">
         <v>361.58</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>245.74</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="0"/>
+        <v>115.83999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -14638,8 +17666,15 @@
       <c r="J104">
         <v>365.42</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>246.76</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="0"/>
+        <v>118.66000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -14670,8 +17705,15 @@
       <c r="J105">
         <v>369.27</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>247.78</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="0"/>
+        <v>121.48999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -14702,8 +17744,15 @@
       <c r="J106">
         <v>373.11</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>248.8</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="0"/>
+        <v>124.31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -14734,8 +17783,15 @@
       <c r="J107">
         <v>376.96</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>249.82</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="0"/>
+        <v>127.13999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -14766,8 +17822,15 @@
       <c r="J108">
         <v>380.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>250.84</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="0"/>
+        <v>129.96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -14798,8 +17861,15 @@
       <c r="J109">
         <v>384.65</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>251.86</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="0"/>
+        <v>132.78999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -14830,8 +17900,15 @@
       <c r="J110">
         <v>388.49</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>252.88</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="0"/>
+        <v>135.61000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -14862,8 +17939,15 @@
       <c r="J111">
         <v>392.34</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>253.9</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="0"/>
+        <v>138.43999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
@@ -14894,8 +17978,15 @@
       <c r="J112">
         <v>396.18</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>254.92</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="0"/>
+        <v>141.26000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>0</v>
       </c>
@@ -14926,8 +18017,15 @@
       <c r="J113">
         <v>467.77</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>298.26</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="0"/>
+        <v>169.51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -14958,8 +18056,15 @@
       <c r="J114">
         <v>539.37</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>341.6</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="0"/>
+        <v>197.76999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -14990,8 +18095,15 @@
       <c r="J115">
         <v>610.96</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>384.94</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="0"/>
+        <v>226.02000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -15022,8 +18134,15 @@
       <c r="J116">
         <v>682.55</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>428.28</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="0"/>
+        <v>254.26999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -15054,8 +18173,15 @@
       <c r="J117">
         <v>754.15</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>471.62</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="0"/>
+        <v>282.52999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
@@ -15086,8 +18212,15 @@
       <c r="J118">
         <v>1885.36</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>1179.04</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="0"/>
+        <v>706.31999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -15118,8 +18251,15 @@
       <c r="J119">
         <v>3707</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>2294.35</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="0"/>
+        <v>1412.65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -15151,7 +18291,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
@@ -15183,7 +18323,7 @@
         <v>38.93</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
@@ -15215,7 +18355,7 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
@@ -15247,7 +18387,7 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -15279,7 +18419,7 @@
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -16847,7 +19987,7 @@
         <v>530.54999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -16879,7 +20019,7 @@
         <v>584.54999999999995</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -16911,7 +20051,7 @@
         <v>1443.68</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>0</v>
       </c>
@@ -16943,7 +20083,7 @@
         <v>2788.23</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -16974,8 +20114,15 @@
       <c r="J184">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184">
+        <v>23.57</v>
+      </c>
+      <c r="L184">
+        <f>J184-K184</f>
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -17006,8 +20153,15 @@
       <c r="J185">
         <v>44.24</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185">
+        <v>41.41</v>
+      </c>
+      <c r="L185">
+        <f t="shared" ref="L185:L240" si="1">J185-K185</f>
+        <v>2.8300000000000054</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -17038,8 +20192,15 @@
       <c r="J186">
         <v>62.37</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186">
+        <v>58.14</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="1"/>
+        <v>4.2299999999999969</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>0</v>
       </c>
@@ -17070,8 +20231,15 @@
       <c r="J187">
         <v>80.510000000000005</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187">
+        <v>74.86</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="1"/>
+        <v>5.6500000000000057</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>0</v>
       </c>
@@ -17102,8 +20270,15 @@
       <c r="J188">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188">
+        <v>82.84</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="1"/>
+        <v>7.0600000000000023</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -17134,8 +20309,15 @@
       <c r="J189">
         <v>97.69</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189">
+        <v>89.21</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="1"/>
+        <v>8.480000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -17166,8 +20348,15 @@
       <c r="J190">
         <v>112.88</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190">
+        <v>102.99</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="1"/>
+        <v>9.89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -17198,8 +20387,15 @@
       <c r="J191">
         <v>123.46</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191">
+        <v>112.16</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="1"/>
+        <v>11.299999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -17230,8 +20426,15 @@
       <c r="J192">
         <v>128.69</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>115.98</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="1"/>
+        <v>12.709999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -17262,8 +20465,15 @@
       <c r="J193">
         <v>135.19999999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <v>121.08</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="1"/>
+        <v>14.11999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -17294,8 +20504,15 @@
       <c r="J194">
         <v>143.84</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="1"/>
+        <v>15.539999999999992</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -17326,8 +20543,15 @@
       <c r="J195">
         <v>152.47</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="1"/>
+        <v>16.949999999999989</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -17358,8 +20582,15 @@
       <c r="J196">
         <v>161.11000000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <v>142.75</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="1"/>
+        <v>18.360000000000014</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -17390,8 +20621,15 @@
       <c r="J197">
         <v>169.75</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>149.97</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="1"/>
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -17422,8 +20660,15 @@
       <c r="J198">
         <v>178.38</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <v>157.19</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="1"/>
+        <v>21.189999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -17454,8 +20699,15 @@
       <c r="J199">
         <v>187.02</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <v>164.42</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="1"/>
+        <v>22.600000000000023</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -17486,8 +20738,15 @@
       <c r="J200">
         <v>195.65</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <v>171.64</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="1"/>
+        <v>24.010000000000019</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -17518,8 +20777,15 @@
       <c r="J201">
         <v>204.29</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <v>178.86</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="1"/>
+        <v>25.429999999999978</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -17550,8 +20816,15 @@
       <c r="J202">
         <v>212.93</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <v>186.09</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="1"/>
+        <v>26.840000000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>0</v>
       </c>
@@ -17582,8 +20855,15 @@
       <c r="J203">
         <v>221.56</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>193.31</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="1"/>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -17614,8 +20894,15 @@
       <c r="J204">
         <v>230.2</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <v>200.53</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="1"/>
+        <v>29.669999999999987</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -17646,8 +20933,15 @@
       <c r="J205">
         <v>238.83</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <v>207.75</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="1"/>
+        <v>31.080000000000013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -17678,8 +20972,15 @@
       <c r="J206">
         <v>247.47</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>214.98</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="1"/>
+        <v>32.490000000000009</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -17710,8 +21011,15 @@
       <c r="J207">
         <v>256.10000000000002</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <v>222.2</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="1"/>
+        <v>33.900000000000034</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>0</v>
       </c>
@@ -17742,8 +21050,15 @@
       <c r="J208">
         <v>264.74</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>229.42</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="1"/>
+        <v>35.320000000000022</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>0</v>
       </c>
@@ -17774,8 +21089,15 @@
       <c r="J209">
         <v>267.17</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <v>230.44</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="1"/>
+        <v>36.730000000000018</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -17806,8 +21128,15 @@
       <c r="J210">
         <v>269.60000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>231.46</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="1"/>
+        <v>38.140000000000015</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -17838,8 +21167,15 @@
       <c r="J211">
         <v>272.04000000000002</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <v>232.48</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="1"/>
+        <v>39.560000000000031</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -17870,8 +21206,15 @@
       <c r="J212">
         <v>274.47000000000003</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>233.5</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="1"/>
+        <v>40.970000000000027</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -17902,8 +21245,15 @@
       <c r="J213">
         <v>276.89999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <v>234.52</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="1"/>
+        <v>42.379999999999967</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>0</v>
       </c>
@@ -17934,8 +21284,15 @@
       <c r="J214">
         <v>279.33</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <v>235.54</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="1"/>
+        <v>43.789999999999992</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -17966,8 +21323,15 @@
       <c r="J215">
         <v>281.77</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <v>236.56</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="1"/>
+        <v>45.20999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -17998,8 +21362,15 @@
       <c r="J216">
         <v>284.2</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <v>237.58</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="1"/>
+        <v>46.619999999999976</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -18030,8 +21401,15 @@
       <c r="J217">
         <v>286.63</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <v>238.6</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="1"/>
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -18062,8 +21440,15 @@
       <c r="J218">
         <v>289.06</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <v>239.62</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="1"/>
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
@@ -18094,8 +21479,15 @@
       <c r="J219">
         <v>291.49</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <v>240.64</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="1"/>
+        <v>50.850000000000023</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>0</v>
       </c>
@@ -18126,8 +21518,15 @@
       <c r="J220">
         <v>293.93</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>241.66</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="1"/>
+        <v>52.27000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -18158,8 +21557,15 @@
       <c r="J221">
         <v>296.36</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <v>242.68</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="1"/>
+        <v>53.680000000000007</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>0</v>
       </c>
@@ -18190,8 +21596,15 @@
       <c r="J222">
         <v>298.79000000000002</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <v>243.7</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="1"/>
+        <v>55.090000000000032</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -18222,8 +21635,15 @@
       <c r="J223">
         <v>301.22000000000003</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <v>244.72</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="1"/>
+        <v>56.500000000000028</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>0</v>
       </c>
@@ -18254,8 +21674,15 @@
       <c r="J224">
         <v>303.66000000000003</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>245.74</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="1"/>
+        <v>57.920000000000016</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>0</v>
       </c>
@@ -18286,8 +21713,15 @@
       <c r="J225">
         <v>306.08999999999997</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <v>246.76</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="1"/>
+        <v>59.329999999999984</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -18318,8 +21752,15 @@
       <c r="J226">
         <v>308.52</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>247.78</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="1"/>
+        <v>60.739999999999981</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -18350,8 +21791,15 @@
       <c r="J227">
         <v>310.95</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <v>248.8</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="1"/>
+        <v>62.149999999999977</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -18382,8 +21830,15 @@
       <c r="J228">
         <v>313.39</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <v>249.82</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="1"/>
+        <v>63.569999999999993</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -18414,8 +21869,15 @@
       <c r="J229">
         <v>315.82</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>250.84</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="1"/>
+        <v>64.97999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -18446,8 +21908,15 @@
       <c r="J230">
         <v>318.25</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <v>251.86</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="1"/>
+        <v>66.389999999999986</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -18478,8 +21947,15 @@
       <c r="J231">
         <v>320.68</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <v>252.88</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="1"/>
+        <v>67.800000000000011</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -18510,8 +21986,15 @@
       <c r="J232">
         <v>323.12</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>253.9</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="1"/>
+        <v>69.22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -18542,8 +22025,15 @@
       <c r="J233">
         <v>325.55</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <v>254.92</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="1"/>
+        <v>70.630000000000024</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -18574,8 +22064,15 @@
       <c r="J234">
         <v>383.01</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>298.26</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="1"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>0</v>
       </c>
@@ -18606,8 +22103,15 @@
       <c r="J235">
         <v>440.48</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>341.6</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="1"/>
+        <v>98.88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>0</v>
       </c>
@@ -18638,8 +22142,15 @@
       <c r="J236">
         <v>497.95</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>384.94</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="1"/>
+        <v>113.00999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -18670,8 +22181,15 @@
       <c r="J237">
         <v>555.41</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>428.28</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="1"/>
+        <v>127.13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>0</v>
       </c>
@@ -18702,8 +22220,15 @@
       <c r="J238">
         <v>612.88</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>471.62</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="1"/>
+        <v>141.26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>0</v>
       </c>
@@ -18734,8 +22259,15 @@
       <c r="J239">
         <v>1532.2</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <v>1179.04</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="1"/>
+        <v>353.16000000000008</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>0</v>
       </c>
@@ -18766,8 +22298,16 @@
       <c r="J240">
         <v>3000.68</v>
       </c>
+      <c r="K240">
+        <v>2294.35</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="1"/>
+        <v>706.32999999999993</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>